--- a/Visualistion/skillss.xlsx
+++ b/Visualistion/skillss.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,11 @@
           <t>wind_dir_50</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>wind_dir_50_cos</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -534,10 +539,10 @@
       <c r="E2" t="n">
         <v>0.3612727285299553</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="2" t="n">
         <v>0.003747178994171985</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" t="n">
         <v>0.1905828875392953</v>
       </c>
       <c r="H2" t="n">
@@ -549,7 +554,7 @@
       <c r="J2" s="2" t="n">
         <v>0.5600004024524758</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" t="n">
         <v>0.1695606580751939</v>
       </c>
       <c r="L2" s="2" t="n">
@@ -563,6 +568,9 @@
       </c>
       <c r="O2" t="n">
         <v>0.1103291402432988</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>0.125168149188206</v>
       </c>
     </row>
     <row r="3">
@@ -572,46 +580,49 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.1631589457037355</v>
+        <v>0.2033935709491338</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.2347865774789989</v>
+        <v>0.1664187349607487</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.04424908708040409</v>
+        <v>0.2101959843703506</v>
       </c>
       <c r="E3" t="n">
-        <v>0.27930513548678</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>0.008767767264978077</v>
+        <v>0.4274656339456328</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-6.582094647516413</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1562986672361063</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>0.1483446446549054</v>
+        <v>0.1835211166755637</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.1519846052127124</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.02228142824132684</v>
+        <v>-0.02958177713689247</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5389085829736171</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-0.02171666841162612</v>
+        <v>0.5281142464580999</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>0.1955058513092267</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0582522762033546</v>
+        <v>0.07868322014990692</v>
       </c>
       <c r="M3" t="n">
-        <v>0.08302564282909297</v>
+        <v>0.09441915747825569</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>0.09095740678311082</v>
-      </c>
-      <c r="O3" s="2" t="n">
-        <v>0.1285687155336457</v>
+        <v>0.1017474108830869</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.1204102363245459</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.05342241370792489</v>
       </c>
     </row>
     <row r="4">
@@ -621,15 +632,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07390118165520565</v>
+        <v>0.0104101156248757</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1685999848665256</v>
+        <v>0.0357038099680218</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1694662851896831</v>
-      </c>
-      <c r="E4" s="2" t="n">
+        <v>-0.1230461241714269</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.3804004915327179</v>
       </c>
       <c r="F4" t="n">
@@ -661,6 +672,61 @@
       </c>
       <c r="O4" t="n">
         <v>0.03171090546999022</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.07590985051479582</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>LSTM_MULTI_CORS</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.03772422863105629</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.004610374829490449</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09041060038357984</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0.4360486552467717</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-6.429054562487722</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>0.2072121390852771</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0.1528958855687462</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.03006286729631436</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5215129724188915</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1937319503718119</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.07826721527256719</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.1042224347293514</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.0979808891567181</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>0.1493552564839502</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.08272570355976294</v>
       </c>
     </row>
   </sheetData>
